--- a/Need to order.xlsx
+++ b/Need to order.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/ryan_laur_ufl_edu/Documents/Projects/laser_harp/github/laser-harp-midi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\GitHub\laser-harp-midi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85183E0-694F-4E49-91B8-E3CBE3F3F685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC4CBD-5BD2-4617-B814-B4600162C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6F0DA424-F3AD-4469-88B4-39D442433476}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{6F0DA424-F3AD-4469-88B4-39D442433476}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,54 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/PAC18R1-43D19F?qs=IS%252B4QmGtzzoiPnRwlkZJXA%3D%3D</t>
+  </si>
+  <si>
+    <t>Phototransistors</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-semiconductor-opto-division/TEPT5700/1681193</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -62,13 +104,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,12 +427,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D4E9C6-B901-4629-8C63-A0F84F77941B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="14.04296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" tooltip="https://www.mouser.com/ProductDetail/Bourns/PAC18R1-43D19F?qs=IS%252B4QmGtzzoiPnRwlkZJXA%3D%3D" xr:uid="{F19DBF8D-A714-424C-B40A-593B74407EF9}"/>
+    <hyperlink ref="C3" r:id="rId2" tooltip="https://www.digikey.com/en/products/detail/vishay-semiconductor-opto-division/TEPT5700/1681193" xr:uid="{573A9A02-DADB-4D46-8A9B-E607776FECC8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Need to order.xlsx
+++ b/Need to order.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\GitHub\laser-harp-midi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC4CBD-5BD2-4617-B814-B4600162C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E59364-82E7-4BD5-B9F7-DC1D089BCCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{6F0DA424-F3AD-4469-88B4-39D442433476}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="18430" windowHeight="10980" xr2:uid="{6F0DA424-F3AD-4469-88B4-39D442433476}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Need to Order" sheetId="1" r:id="rId1"/>
+    <sheet name="Total BOM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,18 +35,34 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Encoder</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Bourns/PAC18R1-43D19F?qs=IS%252B4QmGtzzoiPnRwlkZJXA%3D%3D</t>
-  </si>
-  <si>
-    <t>Phototransistors</t>
-  </si>
-  <si>
     <t>Part</t>
   </si>
   <si>
@@ -55,14 +72,48 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/vishay-semiconductor-opto-division/TEPT5700/1681193</t>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/PEC11R-4215F-N0024/4499663</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Lasers</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>https://www.newark.com/multicomp/cp-aa19a-d-6-4-b6/shaft-type-d-shaft/dp/73M9570</t>
+  </si>
+  <si>
+    <t>Encoder Knob</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/excelitas-technologies/VTP9812FH/5885875</t>
+  </si>
+  <si>
+    <t>Photodiodes</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HiLetgo-128x64-SSH1106-Display-Arduino/dp/B01N1LZT8L/ref=sr_1_1?crid=21HYR83KYJ9F5&amp;keywords=128%C3%9764+Graphical+LCD+Module&amp;qid=1662918421&amp;sprefix=%2Caps%2C167&amp;sr=8-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +137,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,16 +162,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -427,56 +491,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D4E9C6-B901-4629-8C63-A0F84F77941B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="14.04296875" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C2" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="C3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9.19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" cm="1">
+        <f t="array" ref="B10">SUM(B2:B9*C2:C9)</f>
+        <v>19.625999999999998</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="https://www.mouser.com/ProductDetail/Bourns/PAC18R1-43D19F?qs=IS%252B4QmGtzzoiPnRwlkZJXA%3D%3D" xr:uid="{F19DBF8D-A714-424C-B40A-593B74407EF9}"/>
-    <hyperlink ref="C3" r:id="rId2" tooltip="https://www.digikey.com/en/products/detail/vishay-semiconductor-opto-division/TEPT5700/1681193" xr:uid="{573A9A02-DADB-4D46-8A9B-E607776FECC8}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{6E31D468-E958-4D13-9FA3-1F20FC57E298}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{590FA014-DC18-4BE0-85F0-0803DFB9C75C}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{8B47CFFC-4548-46BE-81E4-2D403F47222D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6DD8BF-55B9-4550-B23F-F018B43EC830}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="14.953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" cm="1">
+        <f t="array" ref="B10">SUM(B2:B9*C2:C9)</f>
+        <v>75.626000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{0AB5693E-058F-4F89-97F5-FACCF966FBC2}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{DF0400A9-AE29-4100-AEA0-C6AF3A085BBB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Need to order.xlsx
+++ b/Need to order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\GitHub\laser-harp-midi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E59364-82E7-4BD5-B9F7-DC1D089BCCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9885C4EE-3E5E-43BA-B187-AC4442497A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="18430" windowHeight="10980" xr2:uid="{6F0DA424-F3AD-4469-88B4-39D442433476}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="18340" windowHeight="10980" xr2:uid="{6F0DA424-F3AD-4469-88B4-39D442433476}"/>
   </bookViews>
   <sheets>
     <sheet name="Need to Order" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Encoder</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>https://www.amazon.com/HiLetgo-128x64-SSH1106-Display-Arduino/dp/B01N1LZT8L/ref=sr_1_1?crid=21HYR83KYJ9F5&amp;keywords=128%C3%9764+Graphical+LCD+Module&amp;qid=1662918421&amp;sprefix=%2Caps%2C167&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Linear Regulator</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/MIC29150-3-3WT/771573</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>https://www.newark.com/e-switch/r5bblkgrnff2/switch-rocker-dpst-20a-125vac/dp/15N9104</t>
   </si>
 </sst>
 </file>
@@ -494,7 +506,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -573,13 +585,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6" cm="1">
         <f t="array" ref="B10">SUM(B2:B9*C2:C9)</f>
-        <v>19.625999999999998</v>
+        <v>36.186</v>
       </c>
     </row>
   </sheetData>
@@ -587,9 +627,11 @@
     <hyperlink ref="D4" r:id="rId1" xr:uid="{6E31D468-E958-4D13-9FA3-1F20FC57E298}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{590FA014-DC18-4BE0-85F0-0803DFB9C75C}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{8B47CFFC-4548-46BE-81E4-2D403F47222D}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{54E9B45F-F121-4A13-BD63-9104AA9ACFFF}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{69BF6124-529E-43D3-B70E-2FF7E9F00BDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -598,7 +640,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -690,19 +732,49 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6" cm="1">
         <f t="array" ref="B10">SUM(B2:B9*C2:C9)</f>
-        <v>75.626000000000005</v>
+        <v>92.186000000000007</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{0AB5693E-058F-4F89-97F5-FACCF966FBC2}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{DF0400A9-AE29-4100-AEA0-C6AF3A085BBB}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{27CB9E25-FB18-4D47-9704-78FADABC81C6}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{B8AAEDE2-20CF-4930-B2F4-945CDBEF73EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
